--- a/biology/Zoologie/Colibri_à_queue_verte/Colibri_à_queue_verte.xlsx
+++ b/biology/Zoologie/Colibri_à_queue_verte/Colibri_à_queue_verte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_queue_verte</t>
+          <t>Colibri_à_queue_verte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Talaphorus chlorocercus
 Le Colibri à queue verte (Talaphorus chlorocercus, anciennement Leucippus chlorocercus), aussi colibri tacheté ou mendigot à queue vert, est une espèce de colibris de la sous-famille des Trochilinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_queue_verte</t>
+          <t>Colibri_à_queue_verte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Colibri à queue verte occupe le stade pionnier de la régénération forestière occasionnée par le changement des larges cours d'eau amazoniens.  Il fréquente principalement les îles et dans une moindre mesure les rives des cours d'eau où l'habitat est propice.  Il place son nid dans les graminées du genre Gynerium.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_queue_verte</t>
+          <t>Colibri_à_queue_verte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau arpente les rivages de l'Amazone et de l'Ucayali.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_queue_verte</t>
+          <t>Colibri_à_queue_verte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) « Neotropical Birds Online », Cornell Lab of Ornithology, 2 juillet 2011
 </t>
